--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lamc2-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lamc2-Itgb1.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4421816666666667</v>
+        <v>0.04678466666666666</v>
       </c>
       <c r="H2">
-        <v>1.326545</v>
+        <v>0.140354</v>
       </c>
       <c r="I2">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762189</v>
       </c>
       <c r="J2">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762188</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N2">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P2">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q2">
-        <v>51.75495994161167</v>
+        <v>3.606607652642222</v>
       </c>
       <c r="R2">
-        <v>465.7946394745051</v>
+        <v>32.45946887378</v>
       </c>
       <c r="S2">
-        <v>0.01955813765587134</v>
+        <v>0.001620039919948361</v>
       </c>
       <c r="T2">
-        <v>0.01955813765587134</v>
+        <v>0.001620039919948361</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4421816666666667</v>
+        <v>0.04678466666666666</v>
       </c>
       <c r="H3">
-        <v>1.326545</v>
+        <v>0.140354</v>
       </c>
       <c r="I3">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762189</v>
       </c>
       <c r="J3">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762188</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>304.740112</v>
       </c>
       <c r="O3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P3">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q3">
-        <v>44.91683020811556</v>
+        <v>4.752388186627555</v>
       </c>
       <c r="R3">
-        <v>404.25147187304</v>
+        <v>42.771493679648</v>
       </c>
       <c r="S3">
-        <v>0.01697401658250357</v>
+        <v>0.002134709211241003</v>
       </c>
       <c r="T3">
-        <v>0.01697401658250356</v>
+        <v>0.002134709211241002</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4421816666666667</v>
+        <v>0.04678466666666666</v>
       </c>
       <c r="H4">
-        <v>1.326545</v>
+        <v>0.140354</v>
       </c>
       <c r="I4">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762189</v>
       </c>
       <c r="J4">
-        <v>0.06026482003168283</v>
+        <v>0.006739448717762188</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>426.080368</v>
       </c>
       <c r="O4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P4">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q4">
-        <v>62.8016424187289</v>
+        <v>6.644675996696889</v>
       </c>
       <c r="R4">
-        <v>565.2147817685601</v>
+        <v>59.80208397027199</v>
       </c>
       <c r="S4">
-        <v>0.02373266579330792</v>
+        <v>0.002984699586572825</v>
       </c>
       <c r="T4">
-        <v>0.02373266579330792</v>
+        <v>0.002984699586572824</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>19.109726</v>
       </c>
       <c r="I5">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810419</v>
       </c>
       <c r="J5">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810418</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N5">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P5">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q5">
-        <v>745.5631762399127</v>
+        <v>491.0532227902022</v>
       </c>
       <c r="R5">
-        <v>6710.068586159214</v>
+        <v>4419.47900511182</v>
       </c>
       <c r="S5">
-        <v>0.2817474353858961</v>
+        <v>0.2205745399438215</v>
       </c>
       <c r="T5">
-        <v>0.2817474353858961</v>
+        <v>0.2205745399438215</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>19.109726</v>
       </c>
       <c r="I6">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810419</v>
       </c>
       <c r="J6">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810418</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>304.740112</v>
       </c>
       <c r="O6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P6">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q6">
         <v>647.0555601699235</v>
@@ -818,10 +818,10 @@
         <v>5823.500041529312</v>
       </c>
       <c r="S6">
-        <v>0.2445215247210608</v>
+        <v>0.2906487033963527</v>
       </c>
       <c r="T6">
-        <v>0.2445215247210607</v>
+        <v>0.2906487033963526</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>19.109726</v>
       </c>
       <c r="I7">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810419</v>
       </c>
       <c r="J7">
-        <v>0.8681531333236113</v>
+        <v>0.9176013393810418</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>426.080368</v>
       </c>
       <c r="O7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P7">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q7">
         <v>904.6976762732409</v>
@@ -880,10 +880,10 @@
         <v>8142.279086459168</v>
       </c>
       <c r="S7">
-        <v>0.3418841732166544</v>
+        <v>0.4063780960408678</v>
       </c>
       <c r="T7">
-        <v>0.3418841732166544</v>
+        <v>0.4063780960408677</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.5252196666666666</v>
+        <v>0.5252196666666668</v>
       </c>
       <c r="H8">
         <v>1.575659</v>
       </c>
       <c r="I8">
-        <v>0.07158204664470585</v>
+        <v>0.07565921190119594</v>
       </c>
       <c r="J8">
-        <v>0.07158204664470584</v>
+        <v>0.07565921190119593</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>117.044563</v>
+        <v>77.08952333333333</v>
       </c>
       <c r="N8">
-        <v>351.133689</v>
+        <v>231.26857</v>
       </c>
       <c r="O8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="P8">
-        <v>0.3245365645427815</v>
+        <v>0.2403816673726824</v>
       </c>
       <c r="Q8">
-        <v>61.47410636400566</v>
+        <v>40.48893374862556</v>
       </c>
       <c r="R8">
-        <v>553.266957276051</v>
+        <v>364.40040373763</v>
       </c>
       <c r="S8">
-        <v>0.02323099150101397</v>
+        <v>0.01818708750891258</v>
       </c>
       <c r="T8">
-        <v>0.02323099150101397</v>
+        <v>0.01818708750891257</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.5252196666666666</v>
+        <v>0.5252196666666668</v>
       </c>
       <c r="H9">
         <v>1.575659</v>
       </c>
       <c r="I9">
-        <v>0.07158204664470585</v>
+        <v>0.07565921190119594</v>
       </c>
       <c r="J9">
-        <v>0.07158204664470584</v>
+        <v>0.07565921190119593</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>304.740112</v>
       </c>
       <c r="O9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="P9">
-        <v>0.281657135515876</v>
+        <v>0.3167483425780597</v>
       </c>
       <c r="Q9">
-        <v>53.35183334820089</v>
+        <v>53.3518333482009</v>
       </c>
       <c r="R9">
-        <v>480.166500133808</v>
+        <v>480.1665001338081</v>
       </c>
       <c r="S9">
-        <v>0.02016159421231167</v>
+        <v>0.02396492997046603</v>
       </c>
       <c r="T9">
-        <v>0.02016159421231167</v>
+        <v>0.02396492997046602</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.5252196666666666</v>
+        <v>0.5252196666666668</v>
       </c>
       <c r="H10">
         <v>1.575659</v>
       </c>
       <c r="I10">
-        <v>0.07158204664470585</v>
+        <v>0.07565921190119594</v>
       </c>
       <c r="J10">
-        <v>0.07158204664470584</v>
+        <v>0.07565921190119593</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,22 +1054,22 @@
         <v>426.080368</v>
       </c>
       <c r="O10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="P10">
-        <v>0.3938062999413425</v>
+        <v>0.4428699900492579</v>
       </c>
       <c r="Q10">
-        <v>74.59526295139023</v>
+        <v>74.59526295139024</v>
       </c>
       <c r="R10">
-        <v>671.357366562512</v>
+        <v>671.3573665625121</v>
       </c>
       <c r="S10">
-        <v>0.02818946093138021</v>
+        <v>0.03350719442181734</v>
       </c>
       <c r="T10">
-        <v>0.0281894609313802</v>
+        <v>0.03350719442181734</v>
       </c>
     </row>
   </sheetData>
